--- a/resource/excel/server/Server.xlsx
+++ b/resource/excel/server/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26136" windowHeight="16260"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -106,7 +106,7 @@
     <t>tcp port</t>
   </si>
   <si>
-    <t>server type ref squick/plugin/net/i_net_module.h</t>
+    <t>server type ref squick/core/base.h</t>
   </si>
   <si>
     <t>http port</t>
@@ -136,70 +136,73 @@
     <t>100.100.100.100</t>
   </si>
   <si>
+    <t>sqcuik</t>
+  </si>
+  <si>
+    <t>server_wrold_key</t>
+  </si>
+  <si>
+    <t>LoginServer_1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100.100.100.101</t>
+  </si>
+  <si>
+    <t>WorldServer_1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100.100.100.102</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DbProxyServer_1</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>100.100.100.103</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ProxyServer_1</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100.100.100.105</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>sqcuik</t>
-  </si>
-  <si>
-    <t>server_wrold_key</t>
-  </si>
-  <si>
-    <t>LoginServer_1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>100.100.100.101</t>
+    <t>ProxyServer_2</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>GameServer_1</t>
+  </si>
+  <si>
+    <t>100.100.100.106</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>WorldServer_1</t>
-  </si>
-  <si>
-    <t>100.100.100.102</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>DbProxyServer_1</t>
-  </si>
-  <si>
-    <t>100.100.100.103</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>GatewayServer_1</t>
-  </si>
-  <si>
-    <t>100.100.100.104</t>
-  </si>
-  <si>
-    <t>ProxyServer_1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100.100.100.105</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>GameServer_16001</t>
-  </si>
-  <si>
-    <t>100.100.100.106</t>
-  </si>
-  <si>
-    <t>GameServer_16002</t>
+    <t>GameServer_2</t>
   </si>
   <si>
     <t>100.100.100.107</t>
@@ -209,6 +212,12 @@
   </si>
   <si>
     <t>100.100.100.108</t>
+  </si>
+  <si>
+    <t>CdnServer_1</t>
+  </si>
+  <si>
+    <t>CdnServer_2</t>
   </si>
 </sst>
 </file>
@@ -1400,23 +1409,23 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15.1574074074074" customWidth="1"/>
-    <col min="5" max="5" width="24.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.6481481481481" customWidth="1"/>
-    <col min="7" max="7" width="13.0740740740741" customWidth="1"/>
-    <col min="8" max="8" width="24.1759259259259" customWidth="1"/>
-    <col min="10" max="10" width="10.7037037037037" customWidth="1"/>
-    <col min="11" max="11" width="11.8981481481481" customWidth="1"/>
-    <col min="12" max="12" width="13.5925925925926" customWidth="1"/>
-    <col min="13" max="13" width="18.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="15.1583333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.65" customWidth="1"/>
+    <col min="7" max="7" width="13.075" customWidth="1"/>
+    <col min="8" max="8" width="20.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.7" customWidth="1"/>
+    <col min="11" max="11" width="11.9" customWidth="1"/>
+    <col min="12" max="12" width="13.5916666666667" customWidth="1"/>
+    <col min="13" max="13" width="18.5583333333333" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1816,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="42.15" spans="1:14">
+    <row r="10" ht="30.75" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -1878,16 +1887,16 @@
         <v>39</v>
       </c>
       <c r="G11" s="13">
-        <v>13001</v>
+        <v>10001</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I11" s="13">
         <v>1</v>
       </c>
       <c r="J11" s="13">
-        <v>12345</v>
+        <v>10002</v>
       </c>
       <c r="K11" s="22">
         <v>0</v>
@@ -1896,18 +1905,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="13">
         <v>5000</v>
@@ -1919,19 +1928,19 @@
         <v>38</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="16">
-        <v>14001</v>
+        <v>10010</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" s="13">
         <v>1</v>
       </c>
       <c r="J12" s="13">
-        <v>4001</v>
+        <v>80</v>
       </c>
       <c r="K12" s="22">
         <v>0</v>
@@ -1940,18 +1949,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" s="13">
         <v>5000</v>
@@ -1963,13 +1972,13 @@
         <v>38</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="13">
+        <v>10101</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="G13" s="13">
-        <v>17001</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
@@ -1984,18 +1993,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C14" s="13">
         <v>5000</v>
@@ -2010,7 +2019,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="16">
-        <v>18001</v>
+        <v>10301</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>52</v>
@@ -2028,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="13">
-        <v>5</v>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -2051,39 +2060,39 @@
         <v>38</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="13">
-        <v>12000</v>
-      </c>
-      <c r="H15" s="13">
-        <v>10</v>
+        <v>10501</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="I15" s="13">
         <v>1</v>
       </c>
       <c r="J15" s="13">
-        <v>12080</v>
+        <v>10502</v>
       </c>
       <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
+        <v>10503</v>
+      </c>
+      <c r="L15" s="22">
+        <v>10504</v>
       </c>
       <c r="M15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="13">
         <v>5000</v>
@@ -2095,31 +2104,31 @@
         <v>38</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="13">
-        <v>15001</v>
+        <v>10505</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" s="13">
         <v>1</v>
       </c>
       <c r="J16" s="13">
-        <v>5001</v>
+        <v>10506</v>
       </c>
       <c r="K16" s="22">
-        <v>25001</v>
+        <v>10507</v>
       </c>
       <c r="L16" s="22">
-        <v>35001</v>
+        <v>10508</v>
       </c>
       <c r="M16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2127,7 +2136,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="13">
         <v>5000</v>
@@ -2142,10 +2151,10 @@
         <v>60</v>
       </c>
       <c r="G17" s="13">
-        <v>16001</v>
+        <v>11000</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I17" s="13">
         <v>1</v>
@@ -2160,18 +2169,18 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="13">
-        <v>11</v>
+        <v>1001</v>
       </c>
       <c r="C18" s="13">
         <v>5000</v>
@@ -2183,13 +2192,13 @@
         <v>38</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="13">
-        <v>16002</v>
+        <v>11001</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I18" s="13">
         <v>1</v>
@@ -2204,18 +2213,18 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="13">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="13">
         <v>5000</v>
@@ -2227,13 +2236,13 @@
         <v>38</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" s="13">
-        <v>20001</v>
+        <v>12000</v>
       </c>
       <c r="H19" s="13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I19" s="13">
         <v>1</v>
@@ -2248,10 +2257,98 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>42</v>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>13000</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>13001</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>3001</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>13002</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>13003</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13">

--- a/resource/excel/server/Server.xlsx
+++ b/resource/excel/server/Server.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -130,7 +130,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>192.168.0.142</t>
   </si>
   <si>
     <t>100.100.100.100</t>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>500</t>
-  </si>
-  <si>
-    <t>100.100.100.105</t>
   </si>
   <si>
     <t>3</t>
@@ -1409,7 +1406,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -2060,13 +2057,13 @@
         <v>38</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="13">
         <v>10501</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13">
         <v>1</v>
@@ -2089,10 +2086,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="C16" s="13">
         <v>5000</v>
@@ -2104,13 +2101,13 @@
         <v>38</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G16" s="13">
         <v>10505</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="13">
         <v>1</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="13">
         <v>1000</v>
@@ -2148,13 +2145,13 @@
         <v>38</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="13">
         <v>11000</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="13">
         <v>1</v>
@@ -2177,7 +2174,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="13">
         <v>1001</v>
@@ -2192,13 +2189,13 @@
         <v>38</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="13">
         <v>11001</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="13">
         <v>1</v>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="13">
         <v>2000</v>
@@ -2236,7 +2233,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="13">
         <v>12000</v>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>3000</v>
@@ -2280,7 +2277,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20">
         <v>13000</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>3001</v>
@@ -2324,7 +2321,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <v>13002</v>
